--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N2">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O2">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P2">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q2">
-        <v>13.7978781364947</v>
+        <v>33.52774610264667</v>
       </c>
       <c r="R2">
-        <v>13.7978781364947</v>
+        <v>301.74971492382</v>
       </c>
       <c r="S2">
-        <v>0.0001827035810297047</v>
+        <v>0.0002948565769622844</v>
       </c>
       <c r="T2">
-        <v>0.0001827035810297047</v>
+        <v>0.000349484967523242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N3">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P3">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q3">
-        <v>172.7087538832975</v>
+        <v>285.999896462424</v>
       </c>
       <c r="R3">
-        <v>172.7087538832975</v>
+        <v>2573.999068161816</v>
       </c>
       <c r="S3">
-        <v>0.002286910168179864</v>
+        <v>0.002515198910905056</v>
       </c>
       <c r="T3">
-        <v>0.002286910168179864</v>
+        <v>0.002981192479232316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N4">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O4">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P4">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q4">
-        <v>197.4682661118584</v>
+        <v>343.701980700666</v>
       </c>
       <c r="R4">
-        <v>197.4682661118584</v>
+        <v>3093.317826305994</v>
       </c>
       <c r="S4">
-        <v>0.002614761414868441</v>
+        <v>0.003022654407316559</v>
       </c>
       <c r="T4">
-        <v>0.002614761414868441</v>
+        <v>0.0035826647933654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N5">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O5">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P5">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q5">
-        <v>196.2112554490871</v>
+        <v>346.9300635364133</v>
       </c>
       <c r="R5">
-        <v>196.2112554490871</v>
+        <v>3122.37057182772</v>
       </c>
       <c r="S5">
-        <v>0.002598116801311999</v>
+        <v>0.003051043475051237</v>
       </c>
       <c r="T5">
-        <v>0.002598116801311999</v>
+        <v>0.003616313533771616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N6">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O6">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P6">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q6">
-        <v>475.5497523684249</v>
+        <v>718.402082224086</v>
       </c>
       <c r="R6">
-        <v>475.5497523684249</v>
+        <v>4310.412493344516</v>
       </c>
       <c r="S6">
-        <v>0.006296956811474871</v>
+        <v>0.006317918842461355</v>
       </c>
       <c r="T6">
-        <v>0.006296956811474871</v>
+        <v>0.004992297575587099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N7">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O7">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P7">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q7">
-        <v>183.1263659524769</v>
+        <v>329.3648556062701</v>
       </c>
       <c r="R7">
-        <v>183.1263659524769</v>
+        <v>2964.28370045643</v>
       </c>
       <c r="S7">
-        <v>0.00242485420653045</v>
+        <v>0.002896567923129065</v>
       </c>
       <c r="T7">
-        <v>0.00242485420653045</v>
+        <v>0.003433218132601165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N8">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P8">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q8">
-        <v>2292.202188913074</v>
+        <v>2809.562990406877</v>
       </c>
       <c r="R8">
-        <v>2292.202188913074</v>
+        <v>25286.06691366189</v>
       </c>
       <c r="S8">
-        <v>0.0303520254502653</v>
+        <v>0.02470843472672015</v>
       </c>
       <c r="T8">
-        <v>0.0303520254502653</v>
+        <v>0.02928619261941199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N9">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O9">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P9">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q9">
-        <v>2620.812099242675</v>
+        <v>3376.40809192741</v>
       </c>
       <c r="R9">
-        <v>2620.812099242675</v>
+        <v>30387.67282734668</v>
       </c>
       <c r="S9">
-        <v>0.03470328923047438</v>
+        <v>0.02969350010482468</v>
       </c>
       <c r="T9">
-        <v>0.03470328923047438</v>
+        <v>0.03519484634427344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N10">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O10">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P10">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q10">
-        <v>2604.128969245463</v>
+        <v>3408.11964909042</v>
       </c>
       <c r="R10">
-        <v>2604.128969245463</v>
+        <v>30673.07684181378</v>
       </c>
       <c r="S10">
-        <v>0.03448238080070555</v>
+        <v>0.02997238438074954</v>
       </c>
       <c r="T10">
-        <v>0.03448238080070555</v>
+        <v>0.03552539980561546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N11">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O11">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P11">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q11">
-        <v>6311.528274082419</v>
+        <v>7057.33088512924</v>
       </c>
       <c r="R11">
-        <v>6311.528274082419</v>
+        <v>42343.98531077544</v>
       </c>
       <c r="S11">
-        <v>0.083573634006456</v>
+        <v>0.06206502581201399</v>
       </c>
       <c r="T11">
-        <v>0.083573634006456</v>
+        <v>0.04904258595530755</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N12">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O12">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P12">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q12">
-        <v>201.9720612271105</v>
+        <v>379.3921454746589</v>
       </c>
       <c r="R12">
-        <v>201.9720612271105</v>
+        <v>3414.52930927193</v>
       </c>
       <c r="S12">
-        <v>0.002674398084191112</v>
+        <v>0.003336528169789626</v>
       </c>
       <c r="T12">
-        <v>0.002674398084191112</v>
+        <v>0.003954690280517172</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N13">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P13">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q13">
-        <v>2528.094730849468</v>
+        <v>3236.308041471476</v>
       </c>
       <c r="R13">
-        <v>2528.094730849468</v>
+        <v>29126.77237324329</v>
       </c>
       <c r="S13">
-        <v>0.03347557906652646</v>
+        <v>0.02846140352477993</v>
       </c>
       <c r="T13">
-        <v>0.03347557906652646</v>
+        <v>0.03373447792482483</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N14">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O14">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P14">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q14">
-        <v>2890.522175874773</v>
+        <v>3889.251352080059</v>
       </c>
       <c r="R14">
-        <v>2890.522175874773</v>
+        <v>35003.26216872053</v>
       </c>
       <c r="S14">
-        <v>0.0382746352267943</v>
+        <v>0.03420365142080747</v>
       </c>
       <c r="T14">
-        <v>0.0382746352267943</v>
+        <v>0.04054059817531627</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N15">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O15">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P15">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q15">
-        <v>2872.122170306317</v>
+        <v>3925.779583625198</v>
       </c>
       <c r="R15">
-        <v>2872.122170306317</v>
+        <v>35332.01625262678</v>
       </c>
       <c r="S15">
-        <v>0.03803099291635587</v>
+        <v>0.034524895481858</v>
       </c>
       <c r="T15">
-        <v>0.03803099291635587</v>
+        <v>0.04092135946407544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N16">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O16">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P16">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q16">
-        <v>6961.053196132469</v>
+        <v>8129.27020068739</v>
       </c>
       <c r="R16">
-        <v>6961.053196132469</v>
+        <v>48775.62120412434</v>
       </c>
       <c r="S16">
-        <v>0.0921742701370728</v>
+        <v>0.07149209425643351</v>
       </c>
       <c r="T16">
-        <v>0.0921742701370728</v>
+        <v>0.0564916735604966</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H17">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I17">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J17">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N17">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O17">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P17">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q17">
-        <v>518.468921413706</v>
+        <v>1326.718166599891</v>
       </c>
       <c r="R17">
-        <v>518.468921413706</v>
+        <v>11940.46349939902</v>
       </c>
       <c r="S17">
-        <v>0.006865267808413724</v>
+        <v>0.01166769683830435</v>
       </c>
       <c r="T17">
-        <v>0.006865267808413724</v>
+        <v>0.01382938339926335</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H18">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I18">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J18">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N18">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P18">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q18">
-        <v>6489.702290364396</v>
+        <v>11317.23132001507</v>
       </c>
       <c r="R18">
-        <v>6489.702290364396</v>
+        <v>101855.0818801356</v>
       </c>
       <c r="S18">
-        <v>0.08593291204175484</v>
+        <v>0.09952831536882163</v>
       </c>
       <c r="T18">
-        <v>0.08593291204175484</v>
+        <v>0.1179680318569419</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H19">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I19">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J19">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N19">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O19">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P19">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q19">
-        <v>7420.06545728628</v>
+        <v>13600.54625491043</v>
       </c>
       <c r="R19">
-        <v>7420.06545728628</v>
+        <v>122404.9162941938</v>
       </c>
       <c r="S19">
-        <v>0.09825224698392794</v>
+        <v>0.1196087115806315</v>
       </c>
       <c r="T19">
-        <v>0.09825224698392794</v>
+        <v>0.1417687443600781</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H20">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I20">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J20">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N20">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O20">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P20">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q20">
-        <v>7372.832038054318</v>
+        <v>13728.2839241341</v>
       </c>
       <c r="R20">
-        <v>7372.832038054318</v>
+        <v>123554.5553172069</v>
       </c>
       <c r="S20">
-        <v>0.0976268091627943</v>
+        <v>0.1207320883737246</v>
       </c>
       <c r="T20">
-        <v>0.0976268091627943</v>
+        <v>0.143100250362404</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H21">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I21">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J21">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N21">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O21">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P21">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q21">
-        <v>17869.25241330254</v>
+        <v>28427.71149876505</v>
       </c>
       <c r="R21">
-        <v>17869.25241330254</v>
+        <v>170566.2689925903</v>
       </c>
       <c r="S21">
-        <v>0.2366143818591132</v>
+        <v>0.2500048072940864</v>
       </c>
       <c r="T21">
-        <v>0.2366143818591132</v>
+        <v>0.1975489752972435</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H22">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I22">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J22">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N22">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O22">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P22">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q22">
-        <v>69.64637556810307</v>
+        <v>136.527216950715</v>
       </c>
       <c r="R22">
-        <v>69.64637556810307</v>
+        <v>819.16330170429</v>
       </c>
       <c r="S22">
-        <v>0.0009222173218341535</v>
+        <v>0.001200675635309026</v>
       </c>
       <c r="T22">
-        <v>0.0009222173218341535</v>
+        <v>0.0009487507219837186</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H23">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I23">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J23">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N23">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O23">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P23">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q23">
-        <v>871.7672831911982</v>
+        <v>1164.610641963942</v>
       </c>
       <c r="R23">
-        <v>871.7672831911982</v>
+        <v>6987.663851783652</v>
       </c>
       <c r="S23">
-        <v>0.0115434418892492</v>
+        <v>0.01024205761795092</v>
       </c>
       <c r="T23">
-        <v>0.0115434418892492</v>
+        <v>0.008093076326254268</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H24">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I24">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J24">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N24">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O24">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P24">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q24">
-        <v>996.7437665674657</v>
+        <v>1399.57737516409</v>
       </c>
       <c r="R24">
-        <v>996.7437665674657</v>
+        <v>8397.464250984543</v>
       </c>
       <c r="S24">
-        <v>0.01319830873409758</v>
+        <v>0.0123084502242209</v>
       </c>
       <c r="T24">
-        <v>0.01319830873409758</v>
+        <v>0.009725899896123638</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H25">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I25">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J25">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N25">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O25">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P25">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q25">
-        <v>990.3988607894587</v>
+        <v>1412.72234364189</v>
       </c>
       <c r="R25">
-        <v>990.3988607894587</v>
+        <v>8476.334061851339</v>
       </c>
       <c r="S25">
-        <v>0.01311429313434592</v>
+        <v>0.01242405240033422</v>
       </c>
       <c r="T25">
-        <v>0.01311429313434592</v>
+        <v>0.009817246505336859</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H26">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I26">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J26">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N26">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O26">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P26">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q26">
-        <v>2400.392026015083</v>
+        <v>2925.381164524826</v>
       </c>
       <c r="R26">
-        <v>2400.392026015083</v>
+        <v>11701.5246580993</v>
       </c>
       <c r="S26">
-        <v>0.03178461316223208</v>
+        <v>0.02572698665281412</v>
       </c>
       <c r="T26">
-        <v>0.03178461316223208</v>
+        <v>0.01355264566245138</v>
       </c>
     </row>
   </sheetData>
